--- a/data_xlsx/现货价_原油_美国西德克萨斯中级轻质原油(WTI).xlsx
+++ b/data_xlsx/现货价_原油_美国西德克萨斯中级轻质原油(WTI).xlsx
@@ -25858,8 +25858,144 @@
         <v>74.83</v>
       </c>
     </row>
+    <row r="3223">
+      <c r="A3223" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3223" s="2" t="n">
+        <v>75.75</v>
+      </c>
+    </row>
     <row r="3224">
-      <c r="A3224" s="3" t="inlineStr">
+      <c r="A3224" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3224" s="2" t="n">
+        <v>76.89</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3225" s="2" t="n">
+        <v>75.42</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3226" s="2" t="n">
+        <v>74.15</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3227" s="2" t="n">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3228" s="2" t="n">
+        <v>75.35</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3229" s="2" t="n">
+        <v>75.65</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3230" s="2" t="n">
+        <v>77.07</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3231" s="2" t="n">
+        <v>78.74</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3232" s="2" t="n">
+        <v>79.63</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3233" s="2" t="n">
+        <v>78.78</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3234" s="2" t="n">
+        <v>80.09</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3235" s="2" t="n">
+        <v>80.58</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3236" s="2" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3237" s="2" t="n">
+        <v>81.37</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3238" s="2" t="n">
+        <v>79.49</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3239" s="2" t="n">
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
